--- a/3. Finetuning/Text2SQL_Data.xlsx
+++ b/3. Finetuning/Text2SQL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\3. Finetuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C57A3-D11E-4DAA-9084-982944FBE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A92D7A0-4E0F-4874-9CC8-5FA8C41E8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,33 +549,6 @@
   </si>
   <si>
     <t>Train</t>
-  </si>
-  <si>
-    <t>SELECT
-    t.taxonid,
-    t.name AS nombre_cientifico,
-    t.taxonrank,
-    t.taxonomicgroup,
-    t.kingdom,
-    t.phylum,
-    t.class,
-    t.taxonorder,
-    t.family,
-    t.genus,
-    ne.nombre_comun AS nombre_comun_preferente,
-    c.CUADRICULA,
-    c.CCAA,
-    c.Provincia
-FROM
-    Taxonomia AS t
-INNER JOIN
-    CuadriculasEspecies AS ce ON t.taxonid = ce.idtaxon
-INNER JOIN
-    Cuadriculas AS c ON ce.cuadricula = c.CUADRICULA
-LEFT JOIN
-    NombresEspecies AS ne ON t.taxonid = ne.idtaxon AND ne.espreferente = 1
-WHERE
-    t.taxonid = &lt;idtaxon&gt; AND c.Provincia = 'Barcelona'</t>
   </si>
   <si>
     <t>SELECT
@@ -829,6 +802,17 @@
 WHERE
     ce.idtaxon = &lt;idtaxon&gt;
     AND r.Longitud &lt; 15</t>
+  </si>
+  <si>
+    <t>SELECT
+    c.CCAA,
+    c.Provincia
+FROM
+    CuadriculasEspecies AS ce
+INNER JOIN
+    Cuadriculas AS c ON ce.cuadricula = c.CUADRICULA
+WHERE
+    ce.idtaxon = &lt;idtaxon&gt; AND c.Provincia = 'Barcelona'</t>
   </si>
 </sst>
 </file>
@@ -884,12 +868,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,12 +1177,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1222,7 +1204,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -1236,7 +1218,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -1250,7 +1232,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -1264,7 +1246,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
@@ -1278,7 +1260,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -1292,7 +1274,7 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
@@ -1306,8 +1288,8 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>184</v>
+      <c r="C8" t="s">
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>164</v>
@@ -1320,8 +1302,8 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>184</v>
+      <c r="C9" t="s">
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>164</v>
@@ -1334,8 +1316,8 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>184</v>
+      <c r="C10" t="s">
+        <v>183</v>
       </c>
       <c r="D10" t="s">
         <v>164</v>
@@ -1348,8 +1330,8 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>165</v>
+      <c r="C11" t="s">
+        <v>186</v>
       </c>
       <c r="D11" t="s">
         <v>164</v>
@@ -1362,8 +1344,8 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>165</v>
+      <c r="C12" t="s">
+        <v>186</v>
       </c>
       <c r="D12" t="s">
         <v>164</v>
@@ -1376,8 +1358,8 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>165</v>
+      <c r="C13" t="s">
+        <v>186</v>
       </c>
       <c r="D13" t="s">
         <v>164</v>
@@ -1390,7 +1372,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
@@ -1404,7 +1386,7 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
@@ -1418,7 +1400,7 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
@@ -1432,7 +1414,7 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
@@ -1446,7 +1428,7 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
@@ -1460,7 +1442,7 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
@@ -1474,7 +1456,7 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
@@ -1488,7 +1470,7 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
@@ -1502,7 +1484,7 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
@@ -1516,8 +1498,8 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>166</v>
+      <c r="C23" t="s">
+        <v>165</v>
       </c>
       <c r="D23" t="s">
         <v>164</v>
@@ -1530,8 +1512,8 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>166</v>
+      <c r="C24" t="s">
+        <v>165</v>
       </c>
       <c r="D24" t="s">
         <v>164</v>
@@ -1544,8 +1526,8 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>166</v>
+      <c r="C25" t="s">
+        <v>165</v>
       </c>
       <c r="D25" t="s">
         <v>164</v>
@@ -1558,8 +1540,8 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>167</v>
+      <c r="C26" t="s">
+        <v>166</v>
       </c>
       <c r="D26" t="s">
         <v>164</v>
@@ -1572,8 +1554,8 @@
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>167</v>
+      <c r="C27" t="s">
+        <v>166</v>
       </c>
       <c r="D27" t="s">
         <v>164</v>
@@ -1586,8 +1568,8 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>167</v>
+      <c r="C28" t="s">
+        <v>166</v>
       </c>
       <c r="D28" t="s">
         <v>164</v>
@@ -1600,8 +1582,8 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>168</v>
+      <c r="C29" t="s">
+        <v>167</v>
       </c>
       <c r="D29" t="s">
         <v>164</v>
@@ -1614,8 +1596,8 @@
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
+      <c r="C30" t="s">
+        <v>167</v>
       </c>
       <c r="D30" t="s">
         <v>164</v>
@@ -1628,8 +1610,8 @@
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>168</v>
+      <c r="C31" t="s">
+        <v>167</v>
       </c>
       <c r="D31" t="s">
         <v>164</v>
@@ -1642,8 +1624,8 @@
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>169</v>
+      <c r="C32" t="s">
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>163</v>
@@ -1656,8 +1638,8 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>169</v>
+      <c r="C33" t="s">
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>163</v>
@@ -1670,8 +1652,8 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>169</v>
+      <c r="C34" t="s">
+        <v>168</v>
       </c>
       <c r="D34" t="s">
         <v>163</v>
@@ -1684,8 +1666,8 @@
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>170</v>
+      <c r="C35" t="s">
+        <v>169</v>
       </c>
       <c r="D35" t="s">
         <v>164</v>
@@ -1698,8 +1680,8 @@
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>170</v>
+      <c r="C36" t="s">
+        <v>169</v>
       </c>
       <c r="D36" t="s">
         <v>164</v>
@@ -1712,8 +1694,8 @@
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>170</v>
+      <c r="C37" t="s">
+        <v>169</v>
       </c>
       <c r="D37" t="s">
         <v>164</v>
@@ -1726,8 +1708,8 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>171</v>
+      <c r="C38" t="s">
+        <v>170</v>
       </c>
       <c r="D38" t="s">
         <v>164</v>
@@ -1740,8 +1722,8 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>171</v>
+      <c r="C39" t="s">
+        <v>170</v>
       </c>
       <c r="D39" t="s">
         <v>164</v>
@@ -1754,8 +1736,8 @@
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>171</v>
+      <c r="C40" t="s">
+        <v>170</v>
       </c>
       <c r="D40" t="s">
         <v>164</v>
@@ -1768,8 +1750,8 @@
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>172</v>
+      <c r="C41" t="s">
+        <v>171</v>
       </c>
       <c r="D41" t="s">
         <v>164</v>
@@ -1782,8 +1764,8 @@
       <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>172</v>
+      <c r="C42" t="s">
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>164</v>
@@ -1796,8 +1778,8 @@
       <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>172</v>
+      <c r="C43" t="s">
+        <v>171</v>
       </c>
       <c r="D43" t="s">
         <v>164</v>
@@ -1810,7 +1792,7 @@
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>21</v>
       </c>
       <c r="D44" t="s">
@@ -1824,7 +1806,7 @@
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
@@ -1838,7 +1820,7 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>21</v>
       </c>
       <c r="D46" t="s">
@@ -1852,7 +1834,7 @@
       <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47" t="s">
@@ -1866,7 +1848,7 @@
       <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
@@ -1880,7 +1862,7 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>21</v>
       </c>
       <c r="D49" t="s">
@@ -1894,7 +1876,7 @@
       <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="D50" t="s">
@@ -1908,7 +1890,7 @@
       <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>21</v>
       </c>
       <c r="D51" t="s">
@@ -1922,7 +1904,7 @@
       <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>21</v>
       </c>
       <c r="D52" t="s">
@@ -1936,7 +1918,7 @@
       <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53" t="s">
@@ -1950,7 +1932,7 @@
       <c r="B54" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>21</v>
       </c>
       <c r="D54" t="s">
@@ -1964,7 +1946,7 @@
       <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>21</v>
       </c>
       <c r="D55" t="s">
@@ -1978,7 +1960,7 @@
       <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>161</v>
       </c>
       <c r="D56" t="s">
@@ -1992,7 +1974,7 @@
       <c r="B57" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>161</v>
       </c>
       <c r="D57" t="s">
@@ -2006,7 +1988,7 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>161</v>
       </c>
       <c r="D58" t="s">
@@ -2020,8 +2002,8 @@
       <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>173</v>
+      <c r="C59" t="s">
+        <v>172</v>
       </c>
       <c r="D59" t="s">
         <v>164</v>
@@ -2034,8 +2016,8 @@
       <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>173</v>
+      <c r="C60" t="s">
+        <v>172</v>
       </c>
       <c r="D60" t="s">
         <v>164</v>
@@ -2048,8 +2030,8 @@
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>173</v>
+      <c r="C61" t="s">
+        <v>172</v>
       </c>
       <c r="D61" t="s">
         <v>164</v>
@@ -2062,8 +2044,8 @@
       <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>174</v>
+      <c r="C62" t="s">
+        <v>173</v>
       </c>
       <c r="D62" t="s">
         <v>164</v>
@@ -2076,8 +2058,8 @@
       <c r="B63" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>174</v>
+      <c r="C63" t="s">
+        <v>173</v>
       </c>
       <c r="D63" t="s">
         <v>164</v>
@@ -2090,8 +2072,8 @@
       <c r="B64" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
+      <c r="C64" t="s">
+        <v>173</v>
       </c>
       <c r="D64" t="s">
         <v>164</v>
@@ -2104,8 +2086,8 @@
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>175</v>
+      <c r="C65" t="s">
+        <v>174</v>
       </c>
       <c r="D65" t="s">
         <v>163</v>
@@ -2118,8 +2100,8 @@
       <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>175</v>
+      <c r="C66" t="s">
+        <v>174</v>
       </c>
       <c r="D66" t="s">
         <v>163</v>
@@ -2132,8 +2114,8 @@
       <c r="B67" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>175</v>
+      <c r="C67" t="s">
+        <v>174</v>
       </c>
       <c r="D67" t="s">
         <v>163</v>
@@ -2146,7 +2128,7 @@
       <c r="B68" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>73</v>
       </c>
       <c r="D68" t="s">
@@ -2160,7 +2142,7 @@
       <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>73</v>
       </c>
       <c r="D69" t="s">
@@ -2174,7 +2156,7 @@
       <c r="B70" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>73</v>
       </c>
       <c r="D70" t="s">
@@ -2188,8 +2170,8 @@
       <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>176</v>
+      <c r="C71" t="s">
+        <v>175</v>
       </c>
       <c r="D71" t="s">
         <v>164</v>
@@ -2202,8 +2184,8 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>176</v>
+      <c r="C72" t="s">
+        <v>175</v>
       </c>
       <c r="D72" t="s">
         <v>164</v>
@@ -2216,8 +2198,8 @@
       <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>176</v>
+      <c r="C73" t="s">
+        <v>175</v>
       </c>
       <c r="D73" t="s">
         <v>164</v>
@@ -2230,7 +2212,7 @@
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>21</v>
       </c>
       <c r="D74" t="s">
@@ -2244,7 +2226,7 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75" t="s">
@@ -2258,7 +2240,7 @@
       <c r="B76" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>21</v>
       </c>
       <c r="D76" t="s">
@@ -2272,7 +2254,7 @@
       <c r="B77" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>21</v>
       </c>
       <c r="D77" t="s">
@@ -2286,7 +2268,7 @@
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78" t="s">
@@ -2300,7 +2282,7 @@
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>21</v>
       </c>
       <c r="D79" t="s">
@@ -2314,7 +2296,7 @@
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>21</v>
       </c>
       <c r="D80" t="s">
@@ -2328,7 +2310,7 @@
       <c r="B81" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>21</v>
       </c>
       <c r="D81" t="s">
@@ -2342,7 +2324,7 @@
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>21</v>
       </c>
       <c r="D82" t="s">
@@ -2356,7 +2338,7 @@
       <c r="B83" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>21</v>
       </c>
       <c r="D83" t="s">
@@ -2370,7 +2352,7 @@
       <c r="B84" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>21</v>
       </c>
       <c r="D84" t="s">
@@ -2384,7 +2366,7 @@
       <c r="B85" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>21</v>
       </c>
       <c r="D85" t="s">
@@ -2398,7 +2380,7 @@
       <c r="B86" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>21</v>
       </c>
       <c r="D86" t="s">
@@ -2412,7 +2394,7 @@
       <c r="B87" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>21</v>
       </c>
       <c r="D87" t="s">
@@ -2426,7 +2408,7 @@
       <c r="B88" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>21</v>
       </c>
       <c r="D88" t="s">
@@ -2440,7 +2422,7 @@
       <c r="B89" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>21</v>
       </c>
       <c r="D89" t="s">
@@ -2454,7 +2436,7 @@
       <c r="B90" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>21</v>
       </c>
       <c r="D90" t="s">
@@ -2468,7 +2450,7 @@
       <c r="B91" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>21</v>
       </c>
       <c r="D91" t="s">
@@ -2482,7 +2464,7 @@
       <c r="B92" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>21</v>
       </c>
       <c r="D92" t="s">
@@ -2496,7 +2478,7 @@
       <c r="B93" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>21</v>
       </c>
       <c r="D93" t="s">
@@ -2510,7 +2492,7 @@
       <c r="B94" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>21</v>
       </c>
       <c r="D94" t="s">
@@ -2524,7 +2506,7 @@
       <c r="B95" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>21</v>
       </c>
       <c r="D95" t="s">
@@ -2538,7 +2520,7 @@
       <c r="B96" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>21</v>
       </c>
       <c r="D96" t="s">
@@ -2552,7 +2534,7 @@
       <c r="B97" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>21</v>
       </c>
       <c r="D97" t="s">
@@ -2566,7 +2548,7 @@
       <c r="B98" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>21</v>
       </c>
       <c r="D98" t="s">
@@ -2580,7 +2562,7 @@
       <c r="B99" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>21</v>
       </c>
       <c r="D99" t="s">
@@ -2594,7 +2576,7 @@
       <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>21</v>
       </c>
       <c r="D100" t="s">
@@ -2608,7 +2590,7 @@
       <c r="B101" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>21</v>
       </c>
       <c r="D101" t="s">
@@ -2622,7 +2604,7 @@
       <c r="B102" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>21</v>
       </c>
       <c r="D102" t="s">
@@ -2636,7 +2618,7 @@
       <c r="B103" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
@@ -2650,7 +2632,7 @@
       <c r="B104" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
@@ -2664,7 +2646,7 @@
       <c r="B105" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" t="s">
         <v>21</v>
       </c>
       <c r="D105" t="s">
@@ -2678,7 +2660,7 @@
       <c r="B106" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>21</v>
       </c>
       <c r="D106" t="s">
@@ -2692,7 +2674,7 @@
       <c r="B107" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" t="s">
@@ -2706,7 +2688,7 @@
       <c r="B108" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>21</v>
       </c>
       <c r="D108" t="s">
@@ -2720,7 +2702,7 @@
       <c r="B109" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" t="s">
         <v>21</v>
       </c>
       <c r="D109" t="s">
@@ -2734,7 +2716,7 @@
       <c r="B110" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
@@ -2748,7 +2730,7 @@
       <c r="B111" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111" t="s">
@@ -2762,7 +2744,7 @@
       <c r="B112" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
@@ -2776,7 +2758,7 @@
       <c r="B113" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
@@ -2790,7 +2772,7 @@
       <c r="B114" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
@@ -2804,7 +2786,7 @@
       <c r="B115" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s">
         <v>21</v>
       </c>
       <c r="D115" t="s">
@@ -2818,7 +2800,7 @@
       <c r="B116" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
@@ -2832,7 +2814,7 @@
       <c r="B117" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" t="s">
         <v>21</v>
       </c>
       <c r="D117" t="s">
@@ -2846,7 +2828,7 @@
       <c r="B118" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s">
         <v>21</v>
       </c>
       <c r="D118" t="s">
@@ -2860,7 +2842,7 @@
       <c r="B119" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s">
         <v>21</v>
       </c>
       <c r="D119" t="s">
@@ -2874,7 +2856,7 @@
       <c r="B120" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" t="s">
@@ -2888,7 +2870,7 @@
       <c r="B121" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s">
         <v>21</v>
       </c>
       <c r="D121" t="s">
@@ -2902,7 +2884,7 @@
       <c r="B122" t="s">
         <v>127</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" t="s">
@@ -2916,7 +2898,7 @@
       <c r="B123" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" t="s">
         <v>21</v>
       </c>
       <c r="D123" t="s">
@@ -2930,7 +2912,7 @@
       <c r="B124" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
@@ -2944,8 +2926,8 @@
       <c r="B125" t="s">
         <v>130</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>177</v>
+      <c r="C125" t="s">
+        <v>176</v>
       </c>
       <c r="D125" t="s">
         <v>164</v>
@@ -2958,8 +2940,8 @@
       <c r="B126" t="s">
         <v>131</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>177</v>
+      <c r="C126" t="s">
+        <v>176</v>
       </c>
       <c r="D126" t="s">
         <v>164</v>
@@ -2972,8 +2954,8 @@
       <c r="B127" t="s">
         <v>132</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>177</v>
+      <c r="C127" t="s">
+        <v>176</v>
       </c>
       <c r="D127" t="s">
         <v>164</v>
@@ -2986,7 +2968,7 @@
       <c r="B128" t="s">
         <v>133</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s">
         <v>134</v>
       </c>
       <c r="D128" t="s">
@@ -3000,7 +2982,7 @@
       <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>134</v>
       </c>
       <c r="D129" t="s">
@@ -3014,7 +2996,7 @@
       <c r="B130" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>134</v>
       </c>
       <c r="D130" t="s">
@@ -3028,8 +3010,8 @@
       <c r="B131" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>178</v>
+      <c r="C131" t="s">
+        <v>177</v>
       </c>
       <c r="D131" t="s">
         <v>164</v>
@@ -3042,8 +3024,8 @@
       <c r="B132" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>178</v>
+      <c r="C132" t="s">
+        <v>177</v>
       </c>
       <c r="D132" t="s">
         <v>164</v>
@@ -3056,8 +3038,8 @@
       <c r="B133" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>178</v>
+      <c r="C133" t="s">
+        <v>177</v>
       </c>
       <c r="D133" t="s">
         <v>164</v>
@@ -3070,8 +3052,8 @@
       <c r="B134" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>179</v>
+      <c r="C134" t="s">
+        <v>178</v>
       </c>
       <c r="D134" t="s">
         <v>163</v>
@@ -3084,8 +3066,8 @@
       <c r="B135" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>179</v>
+      <c r="C135" t="s">
+        <v>178</v>
       </c>
       <c r="D135" t="s">
         <v>163</v>
@@ -3098,8 +3080,8 @@
       <c r="B136" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>179</v>
+      <c r="C136" t="s">
+        <v>178</v>
       </c>
       <c r="D136" t="s">
         <v>163</v>
@@ -3112,8 +3094,8 @@
       <c r="B137" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>185</v>
+      <c r="C137" t="s">
+        <v>184</v>
       </c>
       <c r="D137" t="s">
         <v>164</v>
@@ -3126,8 +3108,8 @@
       <c r="B138" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>185</v>
+      <c r="C138" t="s">
+        <v>184</v>
       </c>
       <c r="D138" t="s">
         <v>164</v>
@@ -3140,8 +3122,8 @@
       <c r="B139" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>185</v>
+      <c r="C139" t="s">
+        <v>184</v>
       </c>
       <c r="D139" t="s">
         <v>164</v>
@@ -3154,8 +3136,8 @@
       <c r="B140" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>186</v>
+      <c r="C140" t="s">
+        <v>185</v>
       </c>
       <c r="D140" t="s">
         <v>164</v>
@@ -3168,8 +3150,8 @@
       <c r="B141" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>186</v>
+      <c r="C141" t="s">
+        <v>185</v>
       </c>
       <c r="D141" t="s">
         <v>164</v>
@@ -3182,8 +3164,8 @@
       <c r="B142" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>186</v>
+      <c r="C142" t="s">
+        <v>185</v>
       </c>
       <c r="D142" t="s">
         <v>164</v>
@@ -3196,8 +3178,8 @@
       <c r="B143" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>180</v>
+      <c r="C143" t="s">
+        <v>179</v>
       </c>
       <c r="D143" t="s">
         <v>164</v>
@@ -3210,8 +3192,8 @@
       <c r="B144" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>180</v>
+      <c r="C144" t="s">
+        <v>179</v>
       </c>
       <c r="D144" t="s">
         <v>164</v>
@@ -3224,8 +3206,8 @@
       <c r="B145" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>180</v>
+      <c r="C145" t="s">
+        <v>179</v>
       </c>
       <c r="D145" t="s">
         <v>164</v>
@@ -3238,8 +3220,8 @@
       <c r="B146" t="s">
         <v>152</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>181</v>
+      <c r="C146" t="s">
+        <v>180</v>
       </c>
       <c r="D146" t="s">
         <v>164</v>
@@ -3252,8 +3234,8 @@
       <c r="B147" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>181</v>
+      <c r="C147" t="s">
+        <v>180</v>
       </c>
       <c r="D147" t="s">
         <v>164</v>
@@ -3266,8 +3248,8 @@
       <c r="B148" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>181</v>
+      <c r="C148" t="s">
+        <v>180</v>
       </c>
       <c r="D148" t="s">
         <v>164</v>
@@ -3280,8 +3262,8 @@
       <c r="B149" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>183</v>
+      <c r="C149" t="s">
+        <v>182</v>
       </c>
       <c r="D149" t="s">
         <v>163</v>
@@ -3294,8 +3276,8 @@
       <c r="B150" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>183</v>
+      <c r="C150" t="s">
+        <v>182</v>
       </c>
       <c r="D150" t="s">
         <v>163</v>
@@ -3308,8 +3290,8 @@
       <c r="B151" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>183</v>
+      <c r="C151" t="s">
+        <v>182</v>
       </c>
       <c r="D151" t="s">
         <v>163</v>
@@ -3322,8 +3304,8 @@
       <c r="B152" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>182</v>
+      <c r="C152" t="s">
+        <v>181</v>
       </c>
       <c r="D152" t="s">
         <v>164</v>
@@ -3336,8 +3318,8 @@
       <c r="B153" t="s">
         <v>159</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>182</v>
+      <c r="C153" t="s">
+        <v>181</v>
       </c>
       <c r="D153" t="s">
         <v>164</v>
@@ -3350,8 +3332,8 @@
       <c r="B154" t="s">
         <v>160</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>182</v>
+      <c r="C154" t="s">
+        <v>181</v>
       </c>
       <c r="D154" t="s">
         <v>164</v>
